--- a/po_analysis_by_asin/B09T5WL6YW_po_data.xlsx
+++ b/po_analysis_by_asin/B09T5WL6YW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -605,7 +606,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -679,6 +680,383 @@
       </c>
       <c r="B10" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.83002544832913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.89439161451983</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.65333488876505</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.88570649059221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.10354212459917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.54420154734277</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.87589749292921</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.16519901077096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.27888044450215</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.48528377966313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.46997981463884</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.94529469964278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.51201814943122</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.98513757749134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.60345644479395</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37.40011466642191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.09817765358964</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.90300806255426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.91618472336858</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.93812003390864</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.92125376337776</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34.25981744354475</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.89846105359529</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33.58433324070339</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.62792834584737</v>
+      </c>
+      <c r="D14" t="n">
+        <v>32.59053695175309</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.33702752709638</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30.91474309645853</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.700498035197981</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31.20876473485083</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.244719761223452</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.97888159627795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.544255738465077</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.80611129814302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.944170345706688</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.81560253971754</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.003801585634584</v>
+      </c>
+      <c r="D20" t="n">
+        <v>28.98665680038836</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.274836890280646</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.4369139997879</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.774623421383772</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.01806996285346</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.008547296245041</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28.01798157467684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.721521685368502</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28.61299279560692</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.785041749498096</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28.7419585987625</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09T5WL6YW_po_data.xlsx
+++ b/po_analysis_by_asin/B09T5WL6YW_po_data.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,16 +712,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -730,12 +720,6 @@
       <c r="B2" t="n">
         <v>28</v>
       </c>
-      <c r="C2" t="n">
-        <v>17.83002544832913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.89439161451983</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -744,12 +728,6 @@
       <c r="B3" t="n">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>17.65333488876505</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.88570649059221</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -758,12 +736,6 @@
       <c r="B4" t="n">
         <v>28</v>
       </c>
-      <c r="C4" t="n">
-        <v>17.10354212459917</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.54420154734277</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -772,12 +744,6 @@
       <c r="B5" t="n">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>17.87589749292921</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.16519901077096</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -786,12 +752,6 @@
       <c r="B6" t="n">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
-        <v>16.27888044450215</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.48528377966313</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -800,12 +760,6 @@
       <c r="B7" t="n">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
-        <v>16.46997981463884</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36.94529469964278</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -814,12 +768,6 @@
       <c r="B8" t="n">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
-        <v>15.51201814943122</v>
-      </c>
-      <c r="D8" t="n">
-        <v>36.98513757749134</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -828,12 +776,6 @@
       <c r="B9" t="n">
         <v>26</v>
       </c>
-      <c r="C9" t="n">
-        <v>14.60345644479395</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37.40011466642191</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -842,12 +784,6 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>15.09817765358964</v>
-      </c>
-      <c r="D10" t="n">
-        <v>35.90300806255426</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -856,12 +792,6 @@
       <c r="B11" t="n">
         <v>25</v>
       </c>
-      <c r="C11" t="n">
-        <v>14.91618472336858</v>
-      </c>
-      <c r="D11" t="n">
-        <v>35.93812003390864</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -870,12 +800,6 @@
       <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
-        <v>13.92125376337776</v>
-      </c>
-      <c r="D12" t="n">
-        <v>34.25981744354475</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -884,12 +808,6 @@
       <c r="B13" t="n">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
-        <v>12.89846105359529</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33.58433324070339</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -898,12 +816,6 @@
       <c r="B14" t="n">
         <v>23</v>
       </c>
-      <c r="C14" t="n">
-        <v>11.62792834584737</v>
-      </c>
-      <c r="D14" t="n">
-        <v>32.59053695175309</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -912,12 +824,6 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
-        <v>10.33702752709638</v>
-      </c>
-      <c r="D15" t="n">
-        <v>30.91474309645853</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -926,12 +832,6 @@
       <c r="B16" t="n">
         <v>21</v>
       </c>
-      <c r="C16" t="n">
-        <v>9.700498035197981</v>
-      </c>
-      <c r="D16" t="n">
-        <v>31.20876473485083</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -940,12 +840,6 @@
       <c r="B17" t="n">
         <v>19</v>
       </c>
-      <c r="C17" t="n">
-        <v>8.244719761223452</v>
-      </c>
-      <c r="D17" t="n">
-        <v>28.97888159627795</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -954,12 +848,6 @@
       <c r="B18" t="n">
         <v>19</v>
       </c>
-      <c r="C18" t="n">
-        <v>8.544255738465077</v>
-      </c>
-      <c r="D18" t="n">
-        <v>28.80611129814302</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -968,12 +856,6 @@
       <c r="B19" t="n">
         <v>19</v>
       </c>
-      <c r="C19" t="n">
-        <v>8.944170345706688</v>
-      </c>
-      <c r="D19" t="n">
-        <v>29.81560253971754</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -982,12 +864,6 @@
       <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="C20" t="n">
-        <v>9.003801585634584</v>
-      </c>
-      <c r="D20" t="n">
-        <v>28.98665680038836</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -996,12 +872,6 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>8.274836890280646</v>
-      </c>
-      <c r="D21" t="n">
-        <v>29.4369139997879</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1010,12 +880,6 @@
       <c r="B22" t="n">
         <v>18</v>
       </c>
-      <c r="C22" t="n">
-        <v>8.774623421383772</v>
-      </c>
-      <c r="D22" t="n">
-        <v>28.01806996285346</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1024,12 +888,6 @@
       <c r="B23" t="n">
         <v>18</v>
       </c>
-      <c r="C23" t="n">
-        <v>8.008547296245041</v>
-      </c>
-      <c r="D23" t="n">
-        <v>28.01798157467684</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1038,12 +896,6 @@
       <c r="B24" t="n">
         <v>18</v>
       </c>
-      <c r="C24" t="n">
-        <v>7.721521685368502</v>
-      </c>
-      <c r="D24" t="n">
-        <v>28.61299279560692</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1051,12 +903,6 @@
       </c>
       <c r="B25" t="n">
         <v>18</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.785041749498096</v>
-      </c>
-      <c r="D25" t="n">
-        <v>28.7419585987625</v>
       </c>
     </row>
   </sheetData>
